--- a/all_dataset/RuSS.xlsx
+++ b/all_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="210">
   <si>
     <t>smiles</t>
   </si>
@@ -34,18 +34,27 @@
     <t>ΔΔG.expt.</t>
   </si>
   <si>
+    <t>Reference url</t>
+  </si>
+  <si>
     <t>c1ccccc1C(=O)C</t>
   </si>
   <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://doi.org/10.1002/1521-3773(20010105)40:1&lt;40::AID-ANIE40&gt;3.0.CO;2-5</t>
+  </si>
+  <si>
     <t>c1ccccc1C(=O)CC</t>
   </si>
   <si>
     <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccccc1)C(C)C</t>
   </si>
   <si>
@@ -538,6 +547,9 @@
     <t>GCSHUYKULREZSJ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040402008012374?via%3Dihub</t>
+  </si>
+  <si>
     <t>C(=O)(c1ncccc1)c1ccc(C)cc1</t>
   </si>
   <si>
@@ -604,6 +616,9 @@
     <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/full/10.1021/ol9904139</t>
+  </si>
+  <si>
     <t>C(=O)(c1ccc(OC)cc1)c1ccccc1</t>
   </si>
   <si>
@@ -626,6 +641,9 @@
   </si>
   <si>
     <t>YAEYBUZMILPYLT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://pubs.rsc.org/en/content/articlepdf/2022/cc/d2cc03701g</t>
   </si>
 </sst>
 </file>
@@ -4724,7 +4742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4733,7 +4751,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4752,13 +4770,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="100" customHeight="1">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="100" customHeight="1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -4769,13 +4790,16 @@
       <c r="F2">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="100" customHeight="1">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="100" customHeight="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -4786,13 +4810,16 @@
       <c r="F3">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="100" customHeight="1">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100" customHeight="1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -4803,13 +4830,16 @@
       <c r="F4">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="100" customHeight="1">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100" customHeight="1">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -4820,13 +4850,16 @@
       <c r="F5">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="100" customHeight="1">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100" customHeight="1">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -4837,13 +4870,16 @@
       <c r="F6">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="100" customHeight="1">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1.5</v>
@@ -4854,13 +4890,16 @@
       <c r="F7">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="100" customHeight="1">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100" customHeight="1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4871,13 +4910,16 @@
       <c r="F8">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="100" customHeight="1">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="100" customHeight="1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4888,13 +4930,16 @@
       <c r="F9">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="100" customHeight="1">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100" customHeight="1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>0.5</v>
@@ -4905,13 +4950,16 @@
       <c r="F10">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="100" customHeight="1">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100" customHeight="1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -4922,13 +4970,16 @@
       <c r="F11">
         <v>1.903622463840116</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="100" customHeight="1">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="100" customHeight="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4939,13 +4990,16 @@
       <c r="F12">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="100" customHeight="1">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100" customHeight="1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>0.5</v>
@@ -4956,13 +5010,16 @@
       <c r="F13">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="100" customHeight="1">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="100" customHeight="1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4973,13 +5030,16 @@
       <c r="F14">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="100" customHeight="1">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="100" customHeight="1">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>0.5</v>
@@ -4990,13 +5050,16 @@
       <c r="F15">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="100" customHeight="1">
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100" customHeight="1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>0.5</v>
@@ -5007,13 +5070,16 @@
       <c r="F16">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="100" customHeight="1">
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>0.5</v>
@@ -5024,13 +5090,16 @@
       <c r="F17">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="100" customHeight="1">
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5041,13 +5110,16 @@
       <c r="F18">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="100" customHeight="1">
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -5058,13 +5130,16 @@
       <c r="F19">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="100" customHeight="1">
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>1.5</v>
@@ -5075,13 +5150,16 @@
       <c r="F20">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="100" customHeight="1">
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>1.5</v>
@@ -5092,13 +5170,16 @@
       <c r="F21">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="100" customHeight="1">
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>0.5</v>
@@ -5109,13 +5190,16 @@
       <c r="F22">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="100" customHeight="1">
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="100" customHeight="1">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>0.5</v>
@@ -5126,13 +5210,16 @@
       <c r="F23">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="100" customHeight="1">
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="100" customHeight="1">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <v>0.5</v>
@@ -5143,13 +5230,16 @@
       <c r="F24">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="100" customHeight="1">
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="100" customHeight="1">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>0.5</v>
@@ -5160,13 +5250,16 @@
       <c r="F25">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="100" customHeight="1">
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="100" customHeight="1">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>0.5</v>
@@ -5177,13 +5270,16 @@
       <c r="F26">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="100" customHeight="1">
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="100" customHeight="1">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>0.5</v>
@@ -5194,13 +5290,16 @@
       <c r="F27">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="100" customHeight="1">
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="100" customHeight="1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>0.5</v>
@@ -5211,13 +5310,16 @@
       <c r="F28">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="100" customHeight="1">
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="100" customHeight="1">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>0.5</v>
@@ -5228,13 +5330,16 @@
       <c r="F29">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="100" customHeight="1">
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="100" customHeight="1">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>0.5</v>
@@ -5245,13 +5350,16 @@
       <c r="F30">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="100" customHeight="1">
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="100" customHeight="1">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>1.5</v>
@@ -5262,13 +5370,16 @@
       <c r="F31">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="100" customHeight="1">
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="100" customHeight="1">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -5279,13 +5390,16 @@
       <c r="F32">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="100" customHeight="1">
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="100" customHeight="1">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33">
         <v>0.5</v>
@@ -5296,13 +5410,16 @@
       <c r="F33">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="100" customHeight="1">
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="100" customHeight="1">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -5313,13 +5430,16 @@
       <c r="F34">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="100" customHeight="1">
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="100" customHeight="1">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D35">
         <v>0.5</v>
@@ -5330,13 +5450,16 @@
       <c r="F35">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="100" customHeight="1">
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="100" customHeight="1">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>98</v>
@@ -5347,13 +5470,16 @@
       <c r="F36">
         <v>-2.331161440365284</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="100" customHeight="1">
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="100" customHeight="1">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>97</v>
@@ -5364,13 +5490,16 @@
       <c r="F37">
         <v>-2.082148354224433</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="100" customHeight="1">
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="100" customHeight="1">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>97</v>
@@ -5381,13 +5510,16 @@
       <c r="F38">
         <v>-2.082148354224433</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="100" customHeight="1">
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="100" customHeight="1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>98</v>
@@ -5398,13 +5530,16 @@
       <c r="F39">
         <v>-2.331161440365284</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="100" customHeight="1">
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="100" customHeight="1">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D40">
         <v>96.5</v>
@@ -5415,13 +5550,16 @@
       <c r="F40">
         <v>-1.986718076069497</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="100" customHeight="1">
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="100" customHeight="1">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>99.5</v>
@@ -5432,13 +5570,16 @@
       <c r="F41">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="100" customHeight="1">
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="100" customHeight="1">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>98.5</v>
@@ -5449,13 +5590,16 @@
       <c r="F42">
         <v>-2.506528426687459</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="100" customHeight="1">
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="100" customHeight="1">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D43">
         <v>98.5</v>
@@ -5466,13 +5610,16 @@
       <c r="F43">
         <v>-2.506528426687459</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="100" customHeight="1">
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="100" customHeight="1">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D44">
         <v>98</v>
@@ -5483,13 +5630,16 @@
       <c r="F44">
         <v>-2.331161440365284</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="100" customHeight="1">
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="100" customHeight="1">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D45">
         <v>99.5</v>
@@ -5500,13 +5650,16 @@
       <c r="F45">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="100" customHeight="1">
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="100" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D46">
         <v>0.5</v>
@@ -5517,13 +5670,16 @@
       <c r="F46">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="100" customHeight="1">
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="100" customHeight="1">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -5534,13 +5690,16 @@
       <c r="F47">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="100" customHeight="1">
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="100" customHeight="1">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D48">
         <v>0.5</v>
@@ -5551,13 +5710,16 @@
       <c r="F48">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="100" customHeight="1">
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="100" customHeight="1">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D49">
         <v>1.5</v>
@@ -5568,13 +5730,16 @@
       <c r="F49">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="100" customHeight="1">
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="100" customHeight="1">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D50">
         <v>0.5</v>
@@ -5585,13 +5750,16 @@
       <c r="F50">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="100" customHeight="1">
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="100" customHeight="1">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -5602,13 +5770,16 @@
       <c r="F51">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="100" customHeight="1">
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="100" customHeight="1">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -5619,13 +5790,16 @@
       <c r="F52">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="100" customHeight="1">
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="100" customHeight="1">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -5636,13 +5810,16 @@
       <c r="F53">
         <v>2.331161440365284</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="100" customHeight="1">
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="100" customHeight="1">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D54">
         <v>0.5</v>
@@ -5653,13 +5830,16 @@
       <c r="F54">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="100" customHeight="1">
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="100" customHeight="1">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D55">
         <v>0.5</v>
@@ -5670,13 +5850,16 @@
       <c r="F55">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="100" customHeight="1">
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="100" customHeight="1">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -5687,13 +5870,16 @@
       <c r="F56">
         <v>2.08214835422443</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="100" customHeight="1">
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="100" customHeight="1">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D57">
         <v>2.5</v>
@@ -5704,13 +5890,16 @@
       <c r="F57">
         <v>2.194436790415197</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="100" customHeight="1">
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="100" customHeight="1">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D58">
         <v>7.5</v>
@@ -5721,13 +5910,16 @@
       <c r="F58">
         <v>1.504845945705453</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="100" customHeight="1">
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="100" customHeight="1">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -5738,13 +5930,16 @@
       <c r="F59">
         <v>1.903622463840116</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="100" customHeight="1">
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="100" customHeight="1">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D60">
         <v>9.5</v>
@@ -5755,13 +5950,16 @@
       <c r="F60">
         <v>1.350158232627011</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="100" customHeight="1">
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="100" customHeight="1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D61">
         <v>96.5</v>
@@ -5772,13 +5970,16 @@
       <c r="F61">
         <v>-1.986718076069497</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="100" customHeight="1">
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="100" customHeight="1">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D62">
         <v>99.5</v>
@@ -5789,13 +5990,16 @@
       <c r="F62">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="100" customHeight="1">
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="100" customHeight="1">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D63">
         <v>97.5</v>
@@ -5806,13 +6010,16 @@
       <c r="F63">
         <v>-2.194436790415199</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="100" customHeight="1">
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="100" customHeight="1">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D64">
         <v>99.5</v>
@@ -5823,13 +6030,16 @@
       <c r="F64">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="100" customHeight="1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D65">
         <v>99.5</v>
@@ -5840,13 +6050,16 @@
       <c r="F65">
         <v>-3.170636656961734</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="100" customHeight="1">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D66">
         <v>98.5</v>
@@ -5857,13 +6070,16 @@
       <c r="F66">
         <v>-2.506528426687459</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="100" customHeight="1">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D67">
         <v>1.25</v>
@@ -5874,13 +6090,16 @@
       <c r="F67">
         <v>2.617255569149221</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="100" customHeight="1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -5891,13 +6110,16 @@
       <c r="F68">
         <v>1.903622463840116</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="100" customHeight="1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D69">
         <v>0.5</v>
@@ -5908,13 +6130,16 @@
       <c r="F69">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="100" customHeight="1">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D70">
         <v>10</v>
@@ -5925,13 +6150,16 @@
       <c r="F70">
         <v>1.316115549578622</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="100" customHeight="1">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5942,13 +6170,16 @@
       <c r="F71">
         <v>2.752430839032118</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="100" customHeight="1">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D72">
         <v>97.5</v>
@@ -5959,13 +6190,16 @@
       <c r="F72">
         <v>-2.194436790415199</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="100" customHeight="1">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D73">
         <v>68.5</v>
@@ -5976,13 +6210,16 @@
       <c r="F73">
         <v>-0.4653231050005244</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="100" customHeight="1">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D74">
         <v>1.5</v>
@@ -5993,13 +6230,16 @@
       <c r="F74">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="100" customHeight="1">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D75">
         <v>7</v>
@@ -6010,13 +6250,16 @@
       <c r="F75">
         <v>1.549401050221227</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="100" customHeight="1">
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="100" customHeight="1">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D76">
         <v>1.5</v>
@@ -6027,13 +6270,16 @@
       <c r="F76">
         <v>2.506528426687457</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="100" customHeight="1">
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="100" customHeight="1">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -6044,13 +6290,16 @@
       <c r="F77">
         <v>1.763689504130906</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="100" customHeight="1">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -6061,13 +6310,16 @@
       <c r="F78">
         <v>2.08214835422443</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="100" customHeight="1">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D79">
         <v>4.5</v>
@@ -6078,13 +6330,16 @@
       <c r="F79">
         <v>1.829943711087029</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="100" customHeight="1">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D80">
         <v>3.5</v>
@@ -6095,13 +6350,16 @@
       <c r="F80">
         <v>1.986718076069495</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="100" customHeight="1">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D81">
         <v>0.5</v>
@@ -6112,13 +6370,16 @@
       <c r="F81">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="100" customHeight="1">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -6129,13 +6390,16 @@
       <c r="F82">
         <v>2.08214835422443</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="100" customHeight="1">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D83">
         <v>0.5</v>
@@ -6146,13 +6410,16 @@
       <c r="F83">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="100" customHeight="1">
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="100" customHeight="1">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D84">
         <v>0.5</v>
@@ -6163,13 +6430,16 @@
       <c r="F84">
         <v>3.170636656961724</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="100" customHeight="1">
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="100" customHeight="1">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D85">
         <v>15</v>
@@ -6180,13 +6450,16 @@
       <c r="F85">
         <v>1.045912398367367</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="100" customHeight="1">
+      <c r="G85" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="100" customHeight="1">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D86">
         <v>20</v>
@@ -6197,13 +6470,16 @@
       <c r="F86">
         <v>0.8358939109244604</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="100" customHeight="1">
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="100" customHeight="1">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D87">
         <v>25</v>
@@ -6214,13 +6490,16 @@
       <c r="F87">
         <v>0.6624302516982101</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="100" customHeight="1">
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="100" customHeight="1">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D88">
         <v>84.5</v>
@@ -6231,13 +6510,16 @@
       <c r="F88">
         <v>-1.022583763448757</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="100" customHeight="1">
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="100" customHeight="1">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D89">
         <v>16</v>
@@ -6248,13 +6530,16 @@
       <c r="F89">
         <v>0.9998617833496319</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="100" customHeight="1">
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="100" customHeight="1">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -6265,13 +6550,16 @@
       <c r="F90">
         <v>-1.260654159218154</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="100" customHeight="1">
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="100" customHeight="1">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D91">
         <v>77.5</v>
@@ -6282,13 +6570,16 @@
       <c r="F91">
         <v>-0.7457307612919885</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="100" customHeight="1">
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="100" customHeight="1">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D92">
         <v>77</v>
@@ -6299,13 +6590,16 @@
       <c r="F92">
         <v>-0.7285754078363164</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="100" customHeight="1">
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="100" customHeight="1">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D93">
         <v>95</v>
@@ -6316,13 +6610,16 @@
       <c r="F93">
         <v>-1.775408371267989</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="100" customHeight="1">
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="100" customHeight="1">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D94">
         <v>43.5</v>
@@ -6333,13 +6630,16 @@
       <c r="F94">
         <v>0.1576644147438256</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="100" customHeight="1">
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="100" customHeight="1">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -6350,13 +6650,16 @@
       <c r="F95">
         <v>-1.32486050339642</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="100" customHeight="1">
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="100" customHeight="1">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D96">
         <v>46</v>
@@ -6367,13 +6670,16 @@
       <c r="F96">
         <v>0.09604364396853164</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="100" customHeight="1">
+      <c r="G96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="100" customHeight="1">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D97">
         <v>32.5</v>
@@ -6384,13 +6690,16 @@
       <c r="F97">
         <v>0.4377943087420472</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="100" customHeight="1">
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="100" customHeight="1">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C98" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D98">
         <v>54.5</v>
@@ -6401,13 +6710,16 @@
       <c r="F98">
         <v>-0.1081107321679067</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="100" customHeight="1">
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="100" customHeight="1">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D99">
         <v>73.5</v>
@@ -6418,13 +6730,16 @@
       <c r="F99">
         <v>-0.6110540618560099</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="100" customHeight="1">
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="100" customHeight="1">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D100">
         <v>99.5</v>
@@ -6434,6 +6749,9 @@
       </c>
       <c r="F100">
         <v>-3.139035627158129</v>
+      </c>
+      <c r="G100" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/all_dataset/RuSS.xlsx
+++ b/all_dataset/RuSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="243">
   <si>
     <t>smiles</t>
   </si>
@@ -608,6 +608,105 @@
   </si>
   <si>
     <t>ZKMWWSYZEDDBGZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C(C(F)(F)F)(C(F)(F)F)OCOC)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>RDYXHIZMFBMAOS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/ol0360795</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>VUVSIPWGRHQUGS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C3(C)OCCO3)S2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FHQKWASXMQBSCT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DHLKAJJXHDNVDN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C(C)S2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>LCWRNKBOWMZEKT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>DNNFCPLFPRGBHI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=NC=CS2)c1cc(OC3CC3)c(OC(F)F)cc1</t>
+  </si>
+  <si>
+    <t>IYZPWGMIISJDTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CSC(C)=N2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>LXZSCYZOMOPQEF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>KHXSJSBQIWAIEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1ccc(OC)cc1</t>
+  </si>
+  <si>
+    <t>ZYZQOYSKLICWGX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ncccc1)c1c(C)cccc1</t>
+  </si>
+  <si>
+    <t>GWXTVPWMINBKEI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2nccc3ccccc23)c1ccccc1</t>
+  </si>
+  <si>
+    <t>MDWCIKACMBMJFA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C2=CN=C([Si](C)(C)C(C)(C)C)S2)c1cnc(OC)cc1</t>
+  </si>
+  <si>
+    <t>RJOOVWVGRDXTKN-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)C2=CN(c3ccccc3)N=C2</t>
+  </si>
+  <si>
+    <t>XTIVLYSLPXZKLH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CN=C([Si](C(C)(C))(C(C)(C))C(C)(C))O1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>IJPGLDZXSJKFQQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ncccc1)c2cc(C(F)(F)F)nc3c(C(F)(F)F)cccc23</t>
+  </si>
+  <si>
+    <t>GZTUXOWPGYDWNO-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
@@ -4445,6 +4544,614 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="124339350"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="125606175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="Picture 101" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="126873000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="128139825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="129406650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="130673475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="131940300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="133207125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="Picture 107" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="134473950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="Picture 108" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="135740775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="Picture 109" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="137007600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="Picture 110" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="138274425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="Picture 111" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="139541250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Picture 112" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="140808075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="142074900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="143341725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="144608550"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4742,7 +5449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6662,13 +7369,13 @@
         <v>199</v>
       </c>
       <c r="D96">
-        <v>46</v>
+        <v>98.75</v>
       </c>
       <c r="E96">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F96">
-        <v>0.09604364396853164</v>
+        <v>-2.59116996546999</v>
       </c>
       <c r="G96" t="s">
         <v>200</v>
@@ -6682,13 +7389,13 @@
         <v>202</v>
       </c>
       <c r="D97">
-        <v>32.5</v>
+        <v>98.5</v>
       </c>
       <c r="E97">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F97">
-        <v>0.4377943087420472</v>
+        <v>-2.481546415790242</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -6702,13 +7409,13 @@
         <v>204</v>
       </c>
       <c r="D98">
-        <v>54.5</v>
+        <v>96</v>
       </c>
       <c r="E98">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F98">
-        <v>-0.1081107321679067</v>
+        <v>-1.884649482472938</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -6722,13 +7429,13 @@
         <v>206</v>
       </c>
       <c r="D99">
-        <v>73.5</v>
+        <v>99.5</v>
       </c>
       <c r="E99">
-        <v>0.59899</v>
+        <v>0.59302</v>
       </c>
       <c r="F99">
-        <v>-0.6110540618560099</v>
+        <v>-3.139035627158129</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
@@ -6742,16 +7449,336 @@
         <v>208</v>
       </c>
       <c r="D100">
-        <v>99.5</v>
+        <v>98.5</v>
       </c>
       <c r="E100">
         <v>0.59302</v>
       </c>
       <c r="F100">
+        <v>-2.481546415790242</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="100" customHeight="1">
+      <c r="A101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101">
+        <v>97.5</v>
+      </c>
+      <c r="E101">
+        <v>0.59302</v>
+      </c>
+      <c r="F101">
+        <v>-2.172565327387805</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="100" customHeight="1">
+      <c r="A102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E102">
+        <v>0.59302</v>
+      </c>
+      <c r="F102">
+        <v>-0.5338637297374831</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="100" customHeight="1">
+      <c r="A103" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E103">
+        <v>0.59302</v>
+      </c>
+      <c r="F103">
+        <v>1.42459229596199</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="100" customHeight="1">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104">
+        <v>12.6</v>
+      </c>
+      <c r="E104">
+        <v>0.59302</v>
+      </c>
+      <c r="F104">
+        <v>1.14856022791088</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="100" customHeight="1">
+      <c r="A105" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105">
+        <v>5.25</v>
+      </c>
+      <c r="E105">
+        <v>0.59302</v>
+      </c>
+      <c r="F105">
+        <v>1.715615024319236</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="100" customHeight="1">
+      <c r="A106" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106">
+        <v>0.649999999999999</v>
+      </c>
+      <c r="E106">
+        <v>0.59302</v>
+      </c>
+      <c r="F106">
+        <v>2.982553696496239</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="100" customHeight="1">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107">
+        <v>95.7</v>
+      </c>
+      <c r="E107">
+        <v>0.59302</v>
+      </c>
+      <c r="F107">
+        <v>-1.839905794590835</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="100" customHeight="1">
+      <c r="A108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108">
+        <v>97.2</v>
+      </c>
+      <c r="E108">
+        <v>0.59302</v>
+      </c>
+      <c r="F108">
+        <v>-2.10353166053703</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="100" customHeight="1">
+      <c r="A109" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109">
+        <v>96.8</v>
+      </c>
+      <c r="E109">
+        <v>0.59302</v>
+      </c>
+      <c r="F109">
+        <v>-2.02189942731846</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="100" customHeight="1">
+      <c r="A110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110">
+        <v>99.5</v>
+      </c>
+      <c r="E110">
+        <v>0.59302</v>
+      </c>
+      <c r="F110">
         <v>-3.139035627158129</v>
       </c>
-      <c r="G100" t="s">
-        <v>209</v>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="100" customHeight="1">
+      <c r="A111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" t="s">
+        <v>230</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111">
+        <v>0.59302</v>
+      </c>
+      <c r="F111">
+        <v>1.631715471340137</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="100" customHeight="1">
+      <c r="A112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112">
+        <v>46</v>
+      </c>
+      <c r="E112">
+        <v>0.59899</v>
+      </c>
+      <c r="F112">
+        <v>0.09604364396853164</v>
+      </c>
+      <c r="G112" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="100" customHeight="1">
+      <c r="A113" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113">
+        <v>32.5</v>
+      </c>
+      <c r="E113">
+        <v>0.59899</v>
+      </c>
+      <c r="F113">
+        <v>0.4377943087420472</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="100" customHeight="1">
+      <c r="A114" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114">
+        <v>54.5</v>
+      </c>
+      <c r="E114">
+        <v>0.59899</v>
+      </c>
+      <c r="F114">
+        <v>-0.1081107321679067</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="100" customHeight="1">
+      <c r="A115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115">
+        <v>73.5</v>
+      </c>
+      <c r="E115">
+        <v>0.59899</v>
+      </c>
+      <c r="F115">
+        <v>-0.6110540618560099</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="100" customHeight="1">
+      <c r="A116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" t="s">
+        <v>241</v>
+      </c>
+      <c r="D116">
+        <v>99.5</v>
+      </c>
+      <c r="E116">
+        <v>0.59302</v>
+      </c>
+      <c r="F116">
+        <v>-3.139035627158129</v>
+      </c>
+      <c r="G116" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/all_dataset/RuSS.xlsx
+++ b/all_dataset/RuSS.xlsx
@@ -5709,13 +5709,13 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E13">
         <v>0.59899</v>
       </c>
       <c r="F13">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -5749,13 +5749,13 @@
         <v>36</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E15">
         <v>0.59899</v>
       </c>
       <c r="F15">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -5889,13 +5889,13 @@
         <v>50</v>
       </c>
       <c r="D22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E22">
         <v>0.59899</v>
       </c>
       <c r="F22">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -5909,13 +5909,13 @@
         <v>52</v>
       </c>
       <c r="D23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E23">
         <v>0.59899</v>
       </c>
       <c r="F23">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -5929,13 +5929,13 @@
         <v>54</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E24">
         <v>0.59899</v>
       </c>
       <c r="F24">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -5969,13 +5969,13 @@
         <v>58</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E26">
         <v>0.59899</v>
       </c>
       <c r="F26">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -6109,13 +6109,13 @@
         <v>72</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E33">
         <v>0.59899</v>
       </c>
       <c r="F33">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -6349,13 +6349,13 @@
         <v>96</v>
       </c>
       <c r="D45">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="E45">
         <v>0.59899</v>
       </c>
       <c r="F45">
-        <v>-3.170636656961734</v>
+        <v>-3.47781888891013</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -6449,13 +6449,13 @@
         <v>106</v>
       </c>
       <c r="D50">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E50">
         <v>0.59899</v>
       </c>
       <c r="F50">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -6529,13 +6529,13 @@
         <v>114</v>
       </c>
       <c r="D54">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E54">
         <v>0.59899</v>
       </c>
       <c r="F54">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -6549,13 +6549,13 @@
         <v>116</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E55">
         <v>0.59899</v>
       </c>
       <c r="F55">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -6729,13 +6729,13 @@
         <v>134</v>
       </c>
       <c r="D64">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E64">
         <v>0.59899</v>
       </c>
       <c r="F64">
-        <v>-3.170636656961734</v>
+        <v>-3.587327999102873</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -7069,13 +7069,13 @@
         <v>168</v>
       </c>
       <c r="D81">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E81">
         <v>0.59899</v>
       </c>
       <c r="F81">
-        <v>3.170636656961724</v>
+        <v>3.58732799910286</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -7649,13 +7649,13 @@
         <v>228</v>
       </c>
       <c r="D110">
-        <v>99.5</v>
+        <v>99.75</v>
       </c>
       <c r="E110">
         <v>0.59302</v>
       </c>
       <c r="F110">
-        <v>-3.139035627158129</v>
+        <v>-3.55157389944404</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
